--- a/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,2744 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F2_P15_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P15_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F3_P22_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P22_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F4_P22_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P22_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F4_P23_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E5" t="n">
+        <v>24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P23_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F5_P24_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F5_P24_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F6_P28_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F6_P28_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>scatter plot</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Anderson &amp; Bidwell_2019_OrgSci_Outside Insiders Understanding the Role of Contracting in the Careers of Managerial Workers.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F1_P7_Anderson &amp; Bidwell_2019_OrgSci_Outside Insiders Understanding the Role of Contracting in the Careers of Managerial Workers.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Anderson &amp; Bidwell_2019_OrgSci_Outside Insiders Understanding the Role of Contracting in the Careers of Managerial Workers.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Beane_2019_ASQ_Shadow Learning - Building Robotic Surgical Skill When Approved Means Fail.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F1_P30_Beane_2019_ASQ_Shadow Learning - Building Robotic Surgical Skill When Approved Means Fail.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P30_Beane_2019_ASQ_Shadow Learning - Building Robotic Surgical Skill When Approved Means Fail.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F2_P16_Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P16_Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F3_P19_Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P19_Beunza &amp; Ferraro_2019_OrgStudies_Performative Work - Bridging Performativity and Institutional Theory in the Responsible Investment Field.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1_P10_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E12" t="n">
+        <v>11</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P10_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F2_P12_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P12_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F3_P15_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E14" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P15_Cain, Frazer &amp; Kilaberia_2019_HR_Identity Work within Attemptes to Transform Health Care.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P23_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P23_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F3_P27_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E16" t="n">
+        <v>28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P27_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F1_P14_Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P14_Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F2_P20_Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E18" t="n">
+        <v>21</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P20_Clarke, Cornelissen &amp; Healey_2019_AMJ_Actions Speak Louder than Words.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P5_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P5_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F2_P10_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P10_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F3_P25_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E21" t="n">
+        <v>26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P25_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F4_P27_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P27_Cole &amp; Chandler_2019_ASQ_A Model of Competitive Impression Management.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2x2 matrix</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Dahm et al._2019_AMJ_Identity Affirmation as Threat.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F1_P7_Dahm et al._2019_AMJ_Identity Affirmation as Threat.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Dahm et al._2019_AMJ_Identity Affirmation as Threat.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dahm et al._2019_AMJ_Identity Affirmation as Threat.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F2_P9_Dahm et al._2019_AMJ_Identity Affirmation as Threat.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P9_Dahm et al._2019_AMJ_Identity Affirmation as Threat.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F1_P4_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P4_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F2_P5_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E26" t="n">
+        <v>6</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P5_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F3_P9_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P9_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F4_P9_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P9_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F5_P13_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F5_P13_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F6_P13_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F6_P13_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F7_P16_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E31" t="n">
+        <v>17</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F7_P16_De Rond, Holeman &amp; Howard-Grenville_2019_AMJ_Sensemaking from the Body - An Enactive ethnography of rowing the Amazon.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gatrell_2019_OrgStudies_Boundary Creatures - Employed breastfeeding Mothers and abjection as practice.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F1_P7_Gatrell_2019_OrgStudies_Boundary Creatures - Employed breastfeeding Mothers and abjection as practice.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Gatrell_2019_OrgStudies_Boundary Creatures - Employed breastfeeding Mothers and abjection as practice.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F2_P11_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P11_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F2_P12_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P12_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>F2_P13_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P13_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>F3_P15_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P15_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>mixed statistical plot (more than 1 statistical plot type)</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>F4_P17_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E37" t="n">
+        <v>18</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P17_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>F5_P19_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E38" t="n">
+        <v>20</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F5_P19_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.pdf</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>F1_P11_Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.png</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P11_Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.pdf</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>F2_P14_Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.png</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P14_Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>F1_P6_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P6_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>F2_P9_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P9_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>F3_P10_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E43" t="n">
+        <v>11</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P10_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>F4_P18_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E44" t="n">
+        <v>19</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P18_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>F5_P20_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F5_P20_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>F6_P21_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E46" t="n">
+        <v>22</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F6_P21_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>F7_P23_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F7_P23_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F1_P6_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P6_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>F2_P24_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E49" t="n">
+        <v>25</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P24_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>F2_P32_Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.png</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E50" t="n">
+        <v>33</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P32_Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.pdf</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>F2_P12_Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.png</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E51" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P12_Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.pdf</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>F2_P13_Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.png</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E52" t="n">
+        <v>14</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P13_Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>F2_P16_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E53" t="n">
+        <v>17</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P16_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>F3_P18_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E54" t="n">
+        <v>19</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P18_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Petriglieri &amp; Obodaru_2019_ASQ_Secure-base Relationships as Drivers of Professional Identity Development in Dual-Career Couples.pdf</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>F1_P22_Petriglieri &amp; Obodaru_2019_ASQ_Secure-base Relationships as Drivers of Professional Identity Development in Dual-Career Couples.png</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E55" t="n">
+        <v>23</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P22_Petriglieri &amp; Obodaru_2019_ASQ_Secure-base Relationships as Drivers of Professional Identity Development in Dual-Career Couples.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Petriglieri et al_2019_ASQ_Agony and Ecstasy in the Gig Economy.pdf</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F1_P9_Petriglieri et al_2019_ASQ_Agony and Ecstasy in the Gig Economy.png</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E56" t="n">
+        <v>10</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P9_Petriglieri et al_2019_ASQ_Agony and Ecstasy in the Gig Economy.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>F1_P7_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>F2_P10_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E58" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P10_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>F3_P15_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P15_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>F4_P17_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E60" t="n">
+        <v>18</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P17_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>F5_P20_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F5_P20_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>F6_P25_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E62" t="n">
+        <v>26</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F6_P25_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>F7_P26_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>7</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E63" t="n">
+        <v>27</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F7_P26_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Raffaelli_2019_ASQ_Technology reemergence.pdf</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>F8_P28_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E64" t="n">
+        <v>29</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F8_P28_Raffaelli_2019_ASQ_Technology reemergence.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>F2_P8_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P8_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.pdf</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>F2_P24_Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.png</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P24_Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.png</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.pdf</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>F1_P3_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P3_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.pdf</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>F2_P10_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E68" t="n">
+        <v>11</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P10_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.pdf</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>F3_P13_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P13_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.pdf</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>F4_P18_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E70" t="n">
+        <v>19</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F4_P18_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>scatter plot</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Simth &amp; Besharov_2019_ASQ_Bowing Before Dual Gods - How Structured Fleixbility Sustains Organizational Hybridity.pdf</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>F2_P25_Simth &amp; Besharov_2019_ASQ_Bowing Before Dual Gods - How Structured Fleixbility Sustains Organizational Hybridity.png</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E71" t="n">
+        <v>26</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P25_Simth &amp; Besharov_2019_ASQ_Bowing Before Dual Gods - How Structured Fleixbility Sustains Organizational Hybridity.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.pdf</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>F2_P13_Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.png</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E72" t="n">
+        <v>14</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P13_Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.pdf</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>F3_P15_Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.png</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E73" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F3_P15_Tyllstrom &amp; Murray_2019_OrgStudies_Lobbying the Client.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ungureanu, Bertolotti, Mattarelli &amp; Bellesia_2019_OrgStudies_Making matters worse by trying to make them better - exploring vicious circles of decision in hybrid partnerships.pdf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>F2_P18_Ungureanu, Bertolotti, Mattarelli &amp; Bellesia_2019_OrgStudies_Making matters worse by trying to make them better - exploring vicious circles of decision in hybrid partnerships.png</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E74" t="n">
+        <v>19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P18_Ungureanu, Bertolotti, Mattarelli &amp; Bellesia_2019_OrgStudies_Making matters worse by trying to make them better - exploring vicious circles of decision in hybrid partnerships.png</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.pdf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>F2_P20_Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.png</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E75" t="n">
+        <v>21</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F2_P20_Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3218,6 +3218,672 @@
         <v>1</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>F1_P8_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P8_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Bindl_2019_HR_Work Related Productivity through the Lens of Narrative.pdf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>F1_P18_Bindl_2019_HR_Work Related Productivity through the Lens of Narrative.png</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E77" t="n">
+        <v>19</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P18_Bindl_2019_HR_Work Related Productivity through the Lens of Narrative.png</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.pdf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>F1_P16_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E78" t="n">
+        <v>17</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P16_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Cunliffe &amp; Locke_2019_OrgStudies_Working with differences in everyday interactions through anticipational fluidity.pdf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>F1_P9_Cunliffe &amp; Locke_2019_OrgStudies_Working with differences in everyday interactions through anticipational fluidity.png</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P9_Cunliffe &amp; Locke_2019_OrgStudies_Working with differences in everyday interactions through anticipational fluidity.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fernando &amp; Prasad_2019_HR_Sex Based Harrassment and Organizational Silencing.pdf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>F1_P9_Fernando &amp; Prasad_2019_HR_Sex Based Harrassment and Organizational Silencing.png</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P9_Fernando &amp; Prasad_2019_HR_Sex Based Harrassment and Organizational Silencing.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>F1_P11_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P11_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>F1_P10_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E82" t="n">
+        <v>11</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P10_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Kahn_2019_AMJ_Dynamics and Implications of Distressing Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>F1_P6_Kahn_2019_AMJ_Dynamics and Implications of Distressing Organizing.png</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E83" t="n">
+        <v>7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P6_Kahn_2019_AMJ_Dynamics and Implications of Distressing Organizing.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>F1_P30_Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.png</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E84" t="n">
+        <v>31</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P30_Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.png</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.pdf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>F1_P11_Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.png</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P11_Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.png</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>drawing</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.pdf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>F1_P11_Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.png</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E86" t="n">
+        <v>12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P11_Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>F1_P7_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E87" t="n">
+        <v>8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Pratt et al_2019_ASQ_The Hidden Side of Trust - Supporting and Sustaining Leaps of Faith among Firefighters.pdf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>F1_P24_Pratt et al_2019_ASQ_The Hidden Side of Trust - Supporting and Sustaining Leaps of Faith among Firefighters.png</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E88" t="n">
+        <v>25</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P24_Pratt et al_2019_ASQ_The Hidden Side of Trust - Supporting and Sustaining Leaps of Faith among Firefighters.png</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>F1_P7_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P7_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.pdf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>F1_P13_Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.png</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P13_Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>F1_P25_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E91" t="n">
+        <v>26</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P25_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>F1_P26_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E92" t="n">
+        <v>27</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P26_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.pdf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>F1_P6_Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.png</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>final_figures/2019/F1_P6_Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>This image does not fit into any of the provided categories. It is a photograph. If you require a classification based on the given categories, please provide a different figure type.</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>data collection, data analysis, data gathering diagrams</t>
         </is>
       </c>
       <c r="I43" t="b">

--- a/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -621,11 +607,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -658,11 +641,8 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>scatter plot</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>scatter plot(s)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -735,9 +712,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -880,11 +845,8 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -917,11 +879,8 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -954,11 +913,8 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -994,9 +950,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1065,11 +1015,8 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,9 +1154,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,9 +1188,6 @@
           <t>2x2 matrix</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,9 +1222,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,9 +1256,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1361,11 +1287,8 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1398,11 +1321,8 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -1435,11 +1355,8 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1472,11 +1389,8 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1512,9 +1426,6 @@
           <t>This image does not fit into any of the provided categories. It is a photograph. If you require a classification based on the given categories, please provide a different figure type.</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1546,11 +1457,8 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1583,11 +1491,8 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1623,9 +1528,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1657,11 +1559,8 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1697,9 +1596,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1734,9 +1630,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1768,11 +1661,8 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>mixed statistical plot (more than 1 statistical plot type)</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
+          <t>mixed statistical plot (more than 1 statistical plot and type)</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1805,11 +1695,8 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1845,9 +1732,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1879,11 +1763,8 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1919,9 +1800,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1953,11 +1831,8 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1993,9 +1868,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2027,11 +1899,8 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>data collection, data analysis, data gathering diagrams</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2064,11 +1933,8 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -2101,11 +1967,8 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2138,11 +2001,8 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2178,9 +2038,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2215,9 +2072,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2252,9 +2106,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2289,9 +2140,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2323,11 +2171,8 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2363,9 +2208,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2400,9 +2242,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2437,9 +2276,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2474,9 +2310,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2511,9 +2344,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2545,11 +2375,8 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2582,11 +2409,8 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2619,11 +2443,8 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2656,11 +2477,8 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -2693,11 +2511,8 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2730,11 +2545,8 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2770,9 +2582,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2807,9 +2616,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2844,9 +2650,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2881,9 +2684,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2918,9 +2718,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2955,9 +2752,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2989,11 +2783,8 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -3026,11 +2817,8 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>scatter plot</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
+          <t>scatter plot(s)</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -3066,9 +2854,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3103,9 +2888,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3140,9 +2922,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3177,9 +2956,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3214,9 +2990,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3248,11 +3021,8 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -3285,11 +3055,8 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3325,9 +3092,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3362,9 +3126,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3396,11 +3157,8 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -3433,11 +3191,8 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -3473,9 +3228,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3510,9 +3262,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3547,9 +3296,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3581,11 +3327,8 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>drawing</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
+          <t>drawing(s)</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3621,9 +3364,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3658,9 +3398,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3695,9 +3432,6 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3732,9 +3466,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3769,9 +3500,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3806,9 +3534,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3843,9 +3568,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3879,9 +3601,6 @@
         <is>
           <t>conceptual diagram</t>
         </is>
-      </c>
-      <c r="I93" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2019_cropped_and_labeled_figs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="243">
   <si>
     <t>original paper</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>final_figures/2019/F3_P10_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
-  </si>
-  <si>
-    <t>data collection, data analysis, data gathering diagram</t>
   </si>
   <si>
     <t>F4_P18_Jarvis, Goodrick &amp; Hudson_2019_AMJ_Where the Heart Functions Best Creative Affective Conflict and the Disruptive Work of Animal Rights Organizations.png</t>
@@ -753,7 +750,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -763,13 +760,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -827,7 +818,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1154,7 +1145,7 @@
     <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1206,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1362,7 +1353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1388,7 +1379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1518,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1544,7 +1535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +1561,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1622,7 +1613,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
@@ -1648,7 +1639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1674,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
@@ -1752,7 +1743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -1778,7 +1769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
@@ -1804,7 +1795,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
@@ -2269,7 +2260,7 @@
         <v>119</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
@@ -2277,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="4">
         <v>4</v>
@@ -2292,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>54</v>
@@ -2303,7 +2294,7 @@
         <v>113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="4">
         <v>5</v>
@@ -2318,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>54</v>
@@ -2329,7 +2320,7 @@
         <v>113</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4">
         <v>6</v>
@@ -2344,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>54</v>
@@ -2355,7 +2346,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C47" s="4">
         <v>7</v>
@@ -2370,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>31</v>
@@ -2378,10 +2369,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -2396,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>60</v>
@@ -2404,10 +2395,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
@@ -2422,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>31</v>
@@ -2430,10 +2421,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="C50" s="4">
         <v>2</v>
@@ -2448,7 +2439,7 @@
         <v>-90</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>27</v>
@@ -2456,10 +2447,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C51" s="4">
         <v>2</v>
@@ -2474,18 +2465,18 @@
         <v>0</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2500,7 +2491,7 @@
         <v>-90</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>31</v>
@@ -2508,10 +2499,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -2526,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>11</v>
@@ -2534,10 +2525,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
@@ -2552,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>11</v>
@@ -2560,10 +2551,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -2578,7 +2569,7 @@
         <v>-90</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>31</v>
@@ -2586,10 +2577,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2604,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>31</v>
@@ -2612,10 +2603,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2630,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>14</v>
@@ -2638,10 +2629,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
@@ -2656,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>14</v>
@@ -2664,10 +2655,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
@@ -2682,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>14</v>
@@ -2690,10 +2681,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4">
         <v>4</v>
@@ -2708,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>14</v>
@@ -2716,10 +2707,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C61" s="4">
         <v>5</v>
@@ -2734,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>14</v>
@@ -2742,10 +2733,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" s="4">
         <v>6</v>
@@ -2760,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>14</v>
@@ -2768,10 +2759,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C63" s="4">
         <v>7</v>
@@ -2786,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>31</v>
@@ -2794,10 +2785,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="4">
         <v>8</v>
@@ -2812,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>31</v>
@@ -2820,10 +2811,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C65" s="4">
         <v>2</v>
@@ -2838,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>11</v>
@@ -2846,10 +2837,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="C66" s="4">
         <v>2</v>
@@ -2864,7 +2855,7 @@
         <v>-90</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>31</v>
@@ -2872,10 +2863,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -2890,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>11</v>
@@ -2898,10 +2889,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C68" s="4">
         <v>2</v>
@@ -2916,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>11</v>
@@ -2924,10 +2915,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
@@ -2942,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>14</v>
@@ -2950,10 +2941,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" s="4">
         <v>4</v>
@@ -2968,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>23</v>
@@ -2976,10 +2967,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="C71" s="4">
         <v>2</v>
@@ -2994,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>31</v>
@@ -3002,10 +2993,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -3020,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>11</v>
@@ -3028,10 +3019,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
@@ -3046,7 +3037,7 @@
         <v>-90</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>11</v>
@@ -3054,10 +3045,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="C74" s="4">
         <v>2</v>
@@ -3072,7 +3063,7 @@
         <v>-90</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>31</v>
@@ -3080,10 +3071,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C75" s="4">
         <v>2</v>
@@ -3098,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>11</v>
@@ -3109,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -3124,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>14</v>
@@ -3132,10 +3123,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -3150,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>14</v>
@@ -3161,7 +3152,7 @@
         <v>45</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -3176,7 +3167,7 @@
         <v>-90</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>31</v>
@@ -3184,10 +3175,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
@@ -3202,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>11</v>
@@ -3210,10 +3201,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
@@ -3228,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>110</v>
@@ -3239,7 +3230,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -3254,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>14</v>
@@ -3262,10 +3253,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -3280,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>60</v>
@@ -3288,10 +3279,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
@@ -3306,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>11</v>
@@ -3314,10 +3305,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -3332,7 +3323,7 @@
         <v>-90</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>31</v>
@@ -3340,10 +3331,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -3358,18 +3349,18 @@
         <v>0</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -3384,7 +3375,7 @@
         <v>-90</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>71</v>
@@ -3392,10 +3383,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -3410,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>71</v>
@@ -3418,10 +3409,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
@@ -3436,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>35</v>
@@ -3444,10 +3435,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
@@ -3462,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>60</v>
@@ -3470,10 +3461,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
@@ -3488,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>71</v>
@@ -3496,10 +3487,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -3514,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>11</v>
@@ -3522,10 +3513,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
@@ -3540,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>11</v>
@@ -3548,10 +3539,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
@@ -3566,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>11</v>
